--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,211 +62,235 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.869+/-0.001</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882+/-0.002</t>
+  </si>
+  <si>
+    <t>0.827+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.859+/-0.002</t>
+  </si>
+  <si>
+    <t>0.805+/-0.012</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.913+/-0.002</t>
+  </si>
+  <si>
+    <t>0.864+/-0.01</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>12.385+/-0.285</t>
+  </si>
+  <si>
+    <t>0.769+/-0.002</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.755+/-0.003</t>
+  </si>
+  <si>
+    <t>0.745+/-0.013</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.798+/-0.004</t>
+  </si>
+  <si>
+    <t>0.792+/-0.011</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>2.448+/-0.023</t>
+  </si>
+  <si>
+    <t>0.839+/-0.002</t>
+  </si>
+  <si>
+    <t>0.817+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.797+/-0.012</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.869+/-0.002</t>
+  </si>
+  <si>
+    <t>0.851+/-0.011</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>9.559+/-0.407</t>
+  </si>
+  <si>
+    <t>0.754+/-0.002</t>
+  </si>
+  <si>
+    <t>0.744+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.71+/-0.002</t>
+  </si>
+  <si>
+    <t>0.702+/-0.016</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.859+/-0.003</t>
+  </si>
+  <si>
+    <t>0.851+/-0.014</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>1.268+/-0.042</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.2+/-0.245</t>
+  </si>
+  <si>
+    <t>0.4+/-0.49</t>
+  </si>
+  <si>
+    <t>0.909+/-0.001</t>
+  </si>
+  <si>
+    <t>0.876+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.908+/-0.002</t>
+  </si>
+  <si>
+    <t>0.881+/-0.01</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.91+/-0.002</t>
+  </si>
+  <si>
+    <t>0.869+/-0.011</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>14.051+/-1.213</t>
+  </si>
+  <si>
+    <t>0.82+/-0.001</t>
   </si>
   <si>
     <t>0.816+/-0.0</t>
   </si>
   <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.843+/-0.002</t>
-  </si>
-  <si>
-    <t>0.791+/-0.011</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.907+/-0.002</t>
-  </si>
-  <si>
-    <t>0.86+/-0.014</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>8.98+/-0.066</t>
-  </si>
-  <si>
-    <t>0.766+/-0.002</t>
-  </si>
-  <si>
-    <t>0.759+/-0.0</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.748+/-0.003</t>
-  </si>
-  <si>
-    <t>0.742+/-0.012</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.8+/-0.002</t>
-  </si>
-  <si>
-    <t>0.796+/-0.015</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>1.625+/-0.037</t>
-  </si>
-  <si>
-    <t>0.833+/-0.001</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>0.816+/-0.002</t>
-  </si>
-  <si>
-    <t>0.793+/-0.015</t>
-  </si>
-  <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.839+/-0.015</t>
-  </si>
-  <si>
-    <t>0.794</t>
-  </si>
-  <si>
-    <t>6.273+/-0.039</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.707+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.016</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.85+/-0.005</t>
-  </si>
-  <si>
-    <t>0.841+/-0.01</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.757+/-0.016</t>
-  </si>
-  <si>
-    <t>0.903+/-0.001</t>
-  </si>
-  <si>
-    <t>0.866+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.894+/-0.002</t>
-  </si>
-  <si>
-    <t>0.864+/-0.008</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.914+/-0.001</t>
-  </si>
-  <si>
-    <t>0.869+/-0.016</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>13.059+/-0.086</t>
-  </si>
-  <si>
-    <t>0.809+/-0.001</t>
-  </si>
-  <si>
-    <t>0.804+/-0.0</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.819+/-0.003</t>
-  </si>
-  <si>
-    <t>0.813+/-0.01</t>
-  </si>
-  <si>
-    <t>0.516</t>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.835+/-0.01</t>
+  </si>
+  <si>
+    <t>0.542</t>
   </si>
   <si>
     <t>0.794+/-0.004</t>
   </si>
   <si>
-    <t>0.789+/-0.018</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>1.98+/-0.015</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.87+/-0.002</t>
-  </si>
-  <si>
-    <t>0.853+/-0.009</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.868+/-0.003</t>
-  </si>
-  <si>
-    <t>0.853+/-0.016</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>7.672+/-0.044</t>
+    <t>0.788+/-0.008</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>3.092+/-0.08</t>
+  </si>
+  <si>
+    <t>0.882+/-0.001</t>
+  </si>
+  <si>
+    <t>0.867+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.885+/-0.003</t>
+  </si>
+  <si>
+    <t>0.87+/-0.009</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.879+/-0.002</t>
+  </si>
+  <si>
+    <t>0.862+/-0.009</t>
+  </si>
+  <si>
+    <t>10.864+/-0.83</t>
   </si>
   <si>
     <t>0.781+/-0.003</t>
@@ -275,25 +299,28 @@
     <t>0.774+/-0.0</t>
   </si>
   <si>
-    <t>0.856+/-0.002</t>
-  </si>
-  <si>
-    <t>0.849+/-0.013</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.677+/-0.007</t>
-  </si>
-  <si>
-    <t>0.667+/-0.027</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.941+/-0.019</t>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.853+/-0.005</t>
+  </si>
+  <si>
+    <t>0.847+/-0.011</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.678+/-0.004</t>
+  </si>
+  <si>
+    <t>0.669+/-0.014</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>1.351+/-0.068</t>
   </si>
 </sst>
 </file>
@@ -682,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -699,19 +726,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -719,19 +746,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -739,19 +766,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -759,19 +786,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -779,19 +806,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -799,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -819,19 +846,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -839,19 +866,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -859,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -918,10 +945,10 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -929,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -938,10 +965,10 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -949,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -958,10 +985,10 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -969,19 +996,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -989,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1009,19 +1036,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1029,19 +1056,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1049,19 +1076,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1069,19 +1096,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1089,19 +1116,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
